--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -967,7 +967,7 @@
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1163,6 +1163,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
       <c r="B10">
         <v>85</v>
       </c>
@@ -1203,6 +1204,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
       <c r="B12">
         <v>97</v>
       </c>
@@ -1223,6 +1225,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
       <c r="B13">
         <v>5</v>
       </c>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="23680" yWindow="-22220" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,6 +574,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,8 +623,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -632,9 +635,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -966,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1184,6 +1189,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
       <c r="B11">
         <v>87</v>
       </c>
@@ -1243,6 +1249,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
       <c r="B14">
         <v>25</v>
       </c>
@@ -1263,6 +1270,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
       <c r="B15">
         <v>28</v>
       </c>
@@ -1283,6 +1291,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
       <c r="B16">
         <v>29</v>
       </c>
@@ -1299,7 +1308,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
       <c r="B17">
         <v>32</v>
       </c>
@@ -1319,7 +1329,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
       <c r="B18">
         <v>33</v>
       </c>
@@ -1339,7 +1350,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
       <c r="B19">
         <v>34</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="1:7">
       <c r="B20">
         <v>37</v>
       </c>
@@ -1379,7 +1391,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
       <c r="B21">
         <v>40</v>
       </c>
@@ -1399,7 +1412,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
       <c r="B22">
         <v>42</v>
       </c>
@@ -1419,7 +1433,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
       <c r="B23">
         <v>43</v>
       </c>
@@ -1439,7 +1454,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
       <c r="B24">
         <v>45</v>
       </c>
@@ -1456,7 +1472,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
       <c r="B25">
         <v>47</v>
       </c>
@@ -1476,7 +1493,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
       <c r="B26">
         <v>48</v>
       </c>
@@ -1493,7 +1511,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
       <c r="B27">
         <v>51</v>
       </c>
@@ -1513,7 +1532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="1:7">
       <c r="B28">
         <v>52</v>
       </c>
@@ -1533,7 +1552,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
       <c r="B29">
         <v>54</v>
       </c>
@@ -1550,7 +1570,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
       <c r="B30">
         <v>56</v>
       </c>
@@ -1570,7 +1591,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
       <c r="B31">
         <v>57</v>
       </c>
@@ -1590,7 +1612,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
       <c r="B32">
         <v>68</v>
       </c>
@@ -1607,7 +1630,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
       <c r="B33">
         <v>69</v>
       </c>
@@ -1624,7 +1648,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
       <c r="B34">
         <v>72</v>
       </c>
@@ -1644,7 +1669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="1:7">
       <c r="B35">
         <v>75</v>
       </c>
@@ -1664,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="1:7">
       <c r="B36">
         <v>76</v>
       </c>
@@ -1684,7 +1709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="1:7">
       <c r="B37">
         <v>89</v>
       </c>
@@ -1701,7 +1726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="1:7">
       <c r="B38">
         <v>90</v>
       </c>
@@ -1721,7 +1746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="1:7">
       <c r="B39">
         <v>94</v>
       </c>
@@ -1741,7 +1766,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="1:7">
       <c r="B40">
         <v>95</v>
       </c>
@@ -1761,7 +1786,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="1:7">
       <c r="B41">
         <v>99</v>
       </c>
@@ -1781,7 +1806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="1:7">
       <c r="B42">
         <v>103</v>
       </c>
@@ -1801,7 +1826,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="1:7">
       <c r="B43">
         <v>109</v>
       </c>
@@ -1821,7 +1846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="1:7">
       <c r="B44">
         <v>115</v>
       </c>
@@ -1841,7 +1866,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="1:7">
       <c r="B45">
         <v>117</v>
       </c>
@@ -1861,7 +1886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="1:7">
       <c r="B46">
         <v>123</v>
       </c>
@@ -1881,7 +1906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="1:7">
       <c r="B47">
         <v>124</v>
       </c>
@@ -1901,7 +1926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="1:7">
       <c r="B48">
         <v>128</v>
       </c>
@@ -2229,7 +2254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="1:7">
       <c r="B65">
         <v>49</v>
       </c>
@@ -2246,7 +2271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="1:7">
       <c r="B66">
         <v>50</v>
       </c>
@@ -2263,7 +2288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="1:7">
       <c r="B67">
         <v>53</v>
       </c>
@@ -2283,7 +2308,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1"/>
       <c r="B68">
         <v>55</v>
       </c>
@@ -2300,7 +2326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="1:7">
       <c r="B69">
         <v>59</v>
       </c>
@@ -2317,7 +2343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="1:7">
       <c r="B70">
         <v>61</v>
       </c>
@@ -2337,7 +2363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="1:7">
       <c r="B71">
         <v>63</v>
       </c>
@@ -2357,7 +2383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="1:7">
       <c r="B72">
         <v>64</v>
       </c>
@@ -2377,7 +2403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="1:7">
       <c r="B73">
         <v>71</v>
       </c>
@@ -2397,7 +2423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="1:7">
       <c r="B74">
         <v>73</v>
       </c>
@@ -2414,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="1:7">
       <c r="B75">
         <v>74</v>
       </c>
@@ -2434,7 +2460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="1:7">
       <c r="B76">
         <v>77</v>
       </c>
@@ -2451,7 +2477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="1:7">
       <c r="B77">
         <v>78</v>
       </c>
@@ -2471,7 +2497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="1:7">
       <c r="B78">
         <v>79</v>
       </c>
@@ -2491,7 +2517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="1:7">
       <c r="B79">
         <v>82</v>
       </c>
@@ -2511,7 +2537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="1:7">
       <c r="B80">
         <v>86</v>
       </c>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23680" yWindow="-22220" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="25820" yWindow="-20000" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -971,15 +971,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="29.83203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1670,6 +1670,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
       <c r="B35">
         <v>75</v>
       </c>
@@ -1690,6 +1691,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
+      <c r="A36" s="2"/>
       <c r="B36">
         <v>76</v>
       </c>
@@ -1727,6 +1729,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
       <c r="B38">
         <v>90</v>
       </c>
@@ -1747,6 +1750,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
+      <c r="A39" s="1"/>
       <c r="B39">
         <v>94</v>
       </c>
@@ -1807,6 +1811,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
+      <c r="A42" s="1"/>
       <c r="B42">
         <v>103</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="1:7">
       <c r="B81">
         <v>91</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="1:7">
       <c r="B82">
         <v>92</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="1:7">
       <c r="B83">
         <v>93</v>
       </c>
@@ -2617,7 +2622,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1"/>
       <c r="B84">
         <v>96</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="1:7">
       <c r="B85">
         <v>98</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="1:7">
       <c r="B86">
         <v>102</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="1:7">
       <c r="B87">
         <v>105</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="1:7">
       <c r="B88">
         <v>106</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="1:7">
       <c r="B89">
         <v>107</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="1:7">
       <c r="B90">
         <v>114</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="1:7">
       <c r="B91">
         <v>116</v>
       </c>
@@ -2777,7 +2783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="1:7">
       <c r="B92">
         <v>120</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="1:7">
       <c r="B93">
         <v>122</v>
       </c>
@@ -2817,7 +2823,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="1:7">
       <c r="B94">
         <v>127</v>
       </c>
@@ -2837,7 +2843,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="1:7">
       <c r="B95">
         <v>131</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="1:7">
       <c r="B96">
         <v>1</v>
       </c>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25820" yWindow="-20000" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1852,6 +1852,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
+      <c r="A44" s="1"/>
       <c r="B44">
         <v>115</v>
       </c>
@@ -1872,6 +1873,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
       <c r="B45">
         <v>117</v>
       </c>
@@ -1912,6 +1914,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
+      <c r="A47" s="1"/>
       <c r="B47">
         <v>124</v>
       </c>
@@ -1932,6 +1935,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
+      <c r="A48" s="1"/>
       <c r="B48">
         <v>128</v>
       </c>
@@ -1948,7 +1952,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="1:7">
+      <c r="A49" s="2"/>
       <c r="B49">
         <v>130</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="1:7">
       <c r="B50">
         <v>132</v>
       </c>
@@ -1988,7 +1993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="1:7">
       <c r="B51">
         <v>2</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="1:7">
       <c r="B52">
         <v>3</v>
       </c>
@@ -2028,7 +2033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="1:7">
       <c r="B53">
         <v>6</v>
       </c>
@@ -2045,7 +2050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="1:7">
       <c r="B54">
         <v>11</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="1:7">
       <c r="B55">
         <v>12</v>
       </c>
@@ -2082,7 +2087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="1:7">
       <c r="B56">
         <v>15</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="1:7">
       <c r="B57">
         <v>16</v>
       </c>
@@ -2122,7 +2127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="1:7">
       <c r="B58">
         <v>17</v>
       </c>
@@ -2142,7 +2147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="1:7">
       <c r="B59">
         <v>18</v>
       </c>
@@ -2159,7 +2164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="1:7">
       <c r="B60">
         <v>22</v>
       </c>
@@ -2179,7 +2184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="1:7">
       <c r="B61">
         <v>23</v>
       </c>
@@ -2199,7 +2204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="1:7">
       <c r="B62">
         <v>30</v>
       </c>
@@ -2219,7 +2224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="1:7">
       <c r="B63">
         <v>39</v>
       </c>
@@ -2239,7 +2244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="1:7">
       <c r="B64">
         <v>46</v>
       </c>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1974,6 +1974,7 @@
       </c>
     </row>
     <row r="50" spans="1:7">
+      <c r="A50" s="1"/>
       <c r="B50">
         <v>132</v>
       </c>
